--- a/SuRGE_Sharepoint/data/chemistry/tteb/tteb_prelim_toc.xlsx
+++ b/SuRGE_Sharepoint/data/chemistry/tteb/tteb_prelim_toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/chemistry/tteb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/chemistry/tteb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{A689D394-BB3C-46C4-BC4C-1636E855A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9847A3A7-A8C2-4D97-8B5C-960983C447FA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{A689D394-BB3C-46C4-BC4C-1636E855A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE652DAB-AC4B-471C-876A-2B5FE78BA579}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C7AB415-143A-4C3F-A72C-FBE9764539A4}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0C7AB415-143A-4C3F-A72C-FBE9764539A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>DI</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>toc</t>
-  </si>
-  <si>
-    <t>222241 Dup</t>
   </si>
   <si>
     <t>222242 Spk</t>
@@ -152,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C537163-F071-4CD9-91EA-3D6B91DA86E3}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -467,7 +464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +472,7 @@
         <v>0.19139999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,7 +480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -491,7 +488,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -499,7 +496,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -507,7 +504,7 @@
         <v>2.8260000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -515,7 +512,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -523,7 +520,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>223119</v>
       </c>
@@ -531,7 +528,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>223120</v>
       </c>
@@ -539,7 +536,7 @@
         <v>0.69869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>223121</v>
       </c>
@@ -547,7 +544,7 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>223122</v>
       </c>
@@ -555,7 +552,7 @@
         <v>0.72860000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>223123</v>
       </c>
@@ -563,7 +560,7 @@
         <v>0.72509999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>223124</v>
       </c>
@@ -571,7 +568,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>223125</v>
       </c>
@@ -579,7 +576,7 @@
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -587,7 +584,7 @@
         <v>0.71930000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>223126</v>
       </c>
@@ -595,7 +592,7 @@
         <v>0.72289999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -603,7 +600,7 @@
         <v>5.3220000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -611,7 +608,7 @@
         <v>0.1003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -619,7 +616,7 @@
         <v>2.8109999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -627,7 +624,7 @@
         <v>3.0259999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -635,7 +632,7 @@
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>223127</v>
       </c>
@@ -643,7 +640,7 @@
         <v>0.77649999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>223128</v>
       </c>
@@ -651,7 +648,7 @@
         <v>0.69930000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>223129</v>
       </c>
@@ -659,7 +656,7 @@
         <v>0.67910000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>223161</v>
       </c>
@@ -667,7 +664,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>223162</v>
       </c>
@@ -675,7 +672,7 @@
         <v>2.1269999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>223163</v>
       </c>
@@ -683,7 +680,7 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>223164</v>
       </c>
@@ -691,7 +688,7 @@
         <v>2.1920000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>223165</v>
       </c>
@@ -699,7 +696,7 @@
         <v>2.3149999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>223166</v>
       </c>
@@ -707,7 +704,7 @@
         <v>2.1680000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>223193</v>
       </c>
@@ -715,7 +712,7 @@
         <v>8.0559999999999992</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -723,7 +720,7 @@
         <v>0.1173</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -731,7 +728,7 @@
         <v>2.7909999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -739,7 +736,7 @@
         <v>4.8929999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -747,7 +744,7 @@
         <v>4.9580000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>223194</v>
       </c>
@@ -755,7 +752,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>223195</v>
       </c>
@@ -763,7 +760,7 @@
         <v>5.9809999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>223196</v>
       </c>
@@ -771,7 +768,7 @@
         <v>6.7290000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -779,7 +776,7 @@
         <v>6.734</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>223197</v>
       </c>
@@ -787,7 +784,7 @@
         <v>6.3479999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -795,7 +792,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>223198</v>
       </c>
@@ -803,7 +800,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -811,7 +808,7 @@
         <v>0.1066</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -819,7 +816,7 @@
         <v>2.7770000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -827,7 +824,7 @@
         <v>9.6259999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -835,7 +832,7 @@
         <v>4.9550000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -843,7 +840,7 @@
         <v>0.1598</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -851,7 +848,7 @@
         <v>0.43830000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -859,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -867,7 +864,7 @@
         <v>0.2616</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -875,7 +872,7 @@
         <v>0.1784</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -883,7 +880,7 @@
         <v>2.8660000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -891,7 +888,7 @@
         <v>2.839</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -899,7 +896,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>222175</v>
       </c>
@@ -907,323 +904,251 @@
         <v>0.40550000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>222236</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
       </c>
       <c r="B57" s="1">
-        <v>9.9339999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>222237</v>
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
       </c>
       <c r="B58" s="1">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>222238</v>
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
       </c>
       <c r="B59" s="1">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>222239</v>
+        <v>2.851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44269999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>222240</v>
+        <v>2.867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
       </c>
       <c r="B61" s="1">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>222241</v>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
       </c>
       <c r="B62" s="1">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>15</v>
+        <v>4.7930000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>222282</v>
       </c>
       <c r="B63" s="1">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>222242</v>
+        <v>222283</v>
       </c>
       <c r="B64" s="1">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+        <v>0.93710000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>222284</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>222285</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.93179999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>222286</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>222287</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>222288</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>222289</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>222290</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8.3820000000000006E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.8970000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5.016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>222320</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>222321</v>
+      </c>
+      <c r="B77" s="1">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>222322</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>222323</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>222324</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="1">
-        <v>15.41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B81" s="1">
+        <v>2.6219999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>222325</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7.306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.1333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B84" s="1">
+        <v>0.1361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="1">
-        <v>2.851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="1">
-        <v>2.867</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B85" s="1">
+        <v>2.9950000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9.7620000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1">
-        <v>4.7930000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>222243</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.86150000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>222282</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1.222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>222283</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.93710000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>222284</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>222285</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.93179999999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>222286</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>222287</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>222288</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1.083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>222289</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>222290</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0.9788</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1">
-        <v>8.3820000000000006E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="1">
-        <v>3.1349999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1">
-        <v>4.8970000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1">
-        <v>5.016</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>222320</v>
-      </c>
-      <c r="B85" s="1">
-        <v>2.6429999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>222321</v>
-      </c>
-      <c r="B86" s="1">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>222322</v>
-      </c>
       <c r="B87" s="1">
-        <v>2.544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>222323</v>
-      </c>
-      <c r="B88" s="1">
-        <v>2.835</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>222324</v>
-      </c>
-      <c r="B89" s="1">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="1">
-        <v>2.6219999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>222325</v>
-      </c>
-      <c r="B91" s="1">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="1">
-        <v>7.306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.1361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1">
-        <v>2.9950000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="1">
-        <v>9.7620000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="1">
         <v>4.9320000000000004</v>
       </c>
     </row>
@@ -1235,11 +1160,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,7 +1636,11 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1761,6 +1686,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D848B0-B6F8-43B2-B9A4-4012A2F51984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9423AD79-75D7-4DA4-9734-8DE802C840EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{451F5CB5-D09E-4D77-A329-EE276AC8D6BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1768,18 +1724,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9423AD79-75D7-4DA4-9734-8DE802C840EE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D848B0-B6F8-43B2-B9A4-4012A2F51984}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035E1639-27B4-496D-A48C-A459501AA273}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{035E1639-27B4-496D-A48C-A459501AA273}"/>
 </file>